--- a/pdfs_downscaleddata/surface thetao_thresholds.xlsx
+++ b/pdfs_downscaleddata/surface thetao_thresholds.xlsx
@@ -496,16 +496,16 @@
         <v>8.93288288116455</v>
       </c>
       <c r="D2" t="n">
-        <v>13.61263470854858</v>
+        <v>13.54093077557314</v>
       </c>
       <c r="E2" t="n">
-        <v>9.009737873018427</v>
+        <v>9.024927476408708</v>
       </c>
       <c r="F2" t="n">
-        <v>16.19874268855632</v>
+        <v>15.24477239439056</v>
       </c>
       <c r="G2" t="n">
-        <v>10.96195367332314</v>
+        <v>10.53971510077907</v>
       </c>
       <c r="H2" t="n">
         <v>13.61263470854858</v>
